--- a/data/trans_bre/P27-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P27-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,4</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30,95</t>
+          <t>22,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,75</t>
+          <t>21,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>46,58%</t>
+          <t>18,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>76,84%</t>
+          <t>64,12%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>64,31%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>83,97%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 30,66</t>
+          <t>-14,67; 29,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,01; 48,7</t>
+          <t>0,75; 44,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,31; 40,22</t>
+          <t>-2,18; 41,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 127,33</t>
+          <t>-5,92; 36,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,99; 238,65</t>
+          <t>-33,03; 141,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,54; 177,35</t>
+          <t>1,79; 232,68</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-4,92; 221,36</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-19,68; 332,54</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>11,7</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,91</t>
+          <t>29,61</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,2</t>
+          <t>10,32</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>-22,48</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>103,69%</t>
+          <t>34,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>54,34%</t>
+          <t>106,67%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20,9%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-33,08%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 26,02</t>
+          <t>-10,69; 36,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,56; 42,96</t>
+          <t>11,48; 50,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 39,16</t>
+          <t>-14,97; 38,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,15; 101,28</t>
+          <t>-47,67; 1,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,94; 226,74</t>
+          <t>-21,81; 208,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 147,26</t>
+          <t>26,41; 314,65</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-24,21; 124,07</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-58,4; 3,76</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,3</t>
+          <t>16,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,59</t>
+          <t>14,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>8,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>34,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>29,57%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,51%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>19,14%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 24,26</t>
+          <t>-0,38; 32,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 29,81</t>
+          <t>-0,83; 30,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 17,42</t>
+          <t>-11,86; 20,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 60,81</t>
+          <t>-6,55; 26,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 83,74</t>
+          <t>-0,21; 94,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 35,52</t>
+          <t>-1,42; 80,51</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-17,55; 40,42</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-13,16; 71,93</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,23</t>
+          <t>12,19</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,66</t>
+          <t>13,74</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,09</t>
+          <t>13,93</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>19,07</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>22,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>29,22%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>27,48%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>43,63%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,79; 25,73</t>
+          <t>-3,06; 25,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 23,19</t>
+          <t>-1,34; 27,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 22,22</t>
+          <t>-0,17; 28,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,31; 60,62</t>
+          <t>4,65; 32,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 53,06</t>
+          <t>-5,48; 53,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 50,82</t>
+          <t>-1,99; 72,69</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-0,01; 68,06</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8,95; 94,95</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,57</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>6,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>2,7%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-6,96%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11,83%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 19,91</t>
+          <t>-11,54; 24,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 26,89</t>
+          <t>-15,53; 19,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 18,28</t>
+          <t>-24,33; 13,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 36,27</t>
+          <t>-14,49; 23,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 55,9</t>
+          <t>-18,69; 50,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 35,87</t>
+          <t>-21,73; 34,43</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-32,02; 22,52</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-24,49; 60,58</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,03</t>
+          <t>12,86</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,45</t>
+          <t>17,24</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,22</t>
+          <t>10,12</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>-7,67</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-9,07%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>33,55%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15,23%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-14,3%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 26,3</t>
+          <t>-7,77; 32,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,83; 9,79</t>
+          <t>-3,09; 38,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 25,49</t>
+          <t>-9,32; 29,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 57,91</t>
+          <t>-31,85; 15,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,1; 18,46</t>
+          <t>-10,6; 68,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 44,66</t>
+          <t>-4,89; 108,26</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-12,6; 56,63</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-49,45; 37,61</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,86</t>
+          <t>11,88</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,33</t>
+          <t>16,47</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,8</t>
+          <t>9,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>35,92%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>17,89%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,31; 17,18</t>
+          <t>3,75; 20,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,25; 21,91</t>
+          <t>8,57; 24,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,51; 20,63</t>
+          <t>1,39; 18,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,07; 38,3</t>
+          <t>-7,82; 11,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,19; 53,06</t>
+          <t>7,12; 46,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,92; 45,32</t>
+          <t>17,94; 62,57</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2,5; 40,44</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-14,36; 26,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P27-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P27-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>8,07</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>22,1</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>21,19</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>18,5</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>23,61%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>64,12%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>64,31%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>83,97%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>12.06047842470043</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>26.49641211342454</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>23.9837962699495</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>19.7670327618234</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.3650907941651688</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.805933426661413</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.8092072300210297</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.9435030935792303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-14,67; 29,47</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,75; 44,48</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,18; 41,87</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-5,92; 36,65</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-33,03; 141,64</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>1,79; 232,68</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-4,92; 221,36</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-19,68; 332,54</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-10.38550284822853</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>4.264535811831341</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.7242687749426862</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.647968316069206</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2474752596396945</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.08636477571171583</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.00104242623661158</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1689148657132829</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>34.73673779093907</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>48.5382910997293</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>44.51177526666915</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>38.29848127852092</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.681313221000704</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.62946196803872</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.718110667636982</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.582422802884632</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>11,7</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>29,61</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>10,32</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-22,48</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>34,52%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>106,67%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>20,9%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-33,08%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-10,69; 36,11</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>11,48; 50,34</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-14,97; 38,24</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-47,67; 1,55</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-21,81; 208,9</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>26,41; 314,65</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-24,21; 124,07</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-58,4; 3,76</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>10.73374602942167</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>29.6747221359624</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>10.62304798960322</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-21.22671989924234</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.2937466890909325</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.09591799988461</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2150475208460945</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.315793297831107</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>16,47</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>14,77</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,15</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>8,94</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>34,29%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>29,57%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>3,51%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>19,14%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-16.87497072821883</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>12.11725867292851</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-14.86832997114858</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-46.80432490551166</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.2857200311678249</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.2813046739399724</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2323251149473528</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5753314837774646</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,38; 32,57</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 30,59</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,86; 20,16</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,55; 26,91</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-0,21; 94,04</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 80,51</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-17,55; 40,42</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-13,16; 71,93</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>32.78845217947629</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>50.23767771362743</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>36.63049001130216</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.312713273517582</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.490471936188299</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>3.27798121164636</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.15715285501611</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.08440728224277216</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>12,19</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>13,74</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>13,93</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>19,07</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>22,05%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>29,22%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>27,48%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>43,63%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>18.25293784312906</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>13.39159131490018</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.003389736858507</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>8.460242095692101</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.3897323827488859</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.2605429677747788</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.01622436910189572</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1809276888464851</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,06; 25,32</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 27,6</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,17; 28,7</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>4,65; 32,61</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-5,48; 53,41</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 72,69</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-0,01; 68,06</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>8,95; 94,95</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.2663964227113609</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.426561139444848</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-13.61800748817966</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.594511254885294</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.004692100735717724</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.03547498510443538</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.1939919107514853</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1348077923041081</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>34.44583083989662</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>30.43786118505853</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>19.11585356587693</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>26.65717286639771</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.9834338574993258</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.7638488917387385</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3895851712296512</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.755212970003313</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>7,23</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-4,65</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,08</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>12,31%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,7%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-6,96%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>11,83%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-11,54; 24,89</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-15,53; 19,85</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-24,33; 13,21</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-14,49; 23,87</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-18,69; 50,45</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-21,73; 34,43</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-32,02; 22,52</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-24,49; 60,58</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>12.99171925337379</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>12.97313506585073</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>13.99828021920856</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>17.81578980215831</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.2389907207618351</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2749091613412457</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2789894077496387</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4082051690446276</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>12,86</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>17,24</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>10,12</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-7,67</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>21,06%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>33,55%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>15,23%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-14,3%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.787418709897286</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.483668975056562</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.4192712804291662</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>3.263746894493791</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.04450516024192729</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.04183994048651028</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.009384423905041512</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.05912101448077108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-7,77; 32,16</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,09; 38,42</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-9,32; 29,56</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-31,85; 15,14</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-10,6; 68,62</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-4,89; 108,26</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-12,6; 56,63</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-49,45; 37,61</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>26.53448041506084</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>27.40968057933025</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>29.11229543896955</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>31.155071257799</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.5979971404467032</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.7203542619528747</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.7010145512889697</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.920709604931682</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>11,88</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>16,47</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>9,61</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>24,37%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>35,92%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>17,89%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>6,2%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>7.648213399134796</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.893083654030071</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-4.789231002195704</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>6.919635098582577</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.1310314750075897</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.04358531277531564</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.07178883440276826</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.1346877450436714</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>3,75; 20,18</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>8,57; 24,66</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 18,79</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-7,82; 11,67</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>7,12; 46,92</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>17,94; 62,57</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>2,5; 40,44</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-14,36; 26,88</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-11.8010570333982</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-13.6683142045224</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-23.81243973405251</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-13.42681302524323</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.1756755864185973</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.1895209714718899</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.316599168479865</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.2270160751155311</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>25.02742052215103</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>20.29938660466536</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>12.97660125845286</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>25.29961025146475</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.5172724591340164</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.3558363881064321</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.2184748771388648</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.6287214970527166</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>13.08624072558897</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>16.37738021497733</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>12.87748186561316</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-4.517005592071321</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.21528447013361</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.3161999927234111</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.1956204340677964</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>-0.08396856317406449</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-7.978974199884815</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-5.190886489177015</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-5.731332816672775</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-27.31022234719819</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.1121823940325858</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.07997210982537745</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.0723636500511457</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.4385446821876536</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>33.6819364076612</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>37.86753733874399</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>32.16227010476199</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>18.38251765617062</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.7467702768945061</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>1.074561425545524</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0.6402760799029381</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>0.482099219845842</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>12.76508611011478</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>16.57459034566714</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>10.21798901041032</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>3.994175797869342</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.263220515908726</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.3596697428277252</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.1925367650467104</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.08256709257638983</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>4.040349494119674</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>9.037398680788746</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>1.924543977790607</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-6.805285917763751</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.07621042938481012</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.1838341029692502</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.03463544488701979</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.1279107904381668</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>20.62709928708658</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>24.66592896438246</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>19.0313719064632</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>12.47118129601743</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.4746482282070237</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.6199801909651361</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.4158920089206902</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.2843970583782824</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1325,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
